--- a/src/assets/formatted.xlsx
+++ b/src/assets/formatted.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="74">
   <si>
     <t>Year</t>
   </si>
@@ -235,6 +233,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -575,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D622"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H8"/>
+    <sheetView tabSelected="1" topLeftCell="A564" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6 D8:D14 D16:D20 D22:D27 D29:D35 D37:D42 D44:D49 D51:D62 D64:D72 D74 D76:D79 D81:D86 D88:D89 D91:D94 D96 D98:D99 D101 D104:D108 D110:D115 D117:D124 D126:D135 D137:D145 D147:D149 D151:D156 D158:D159 D161:D166 D168:D172 D174:D178 D180:D197 D199:D201 D203:D208 D211 D213:D215 D217:D219 D221:D223 D225:D226 D228:D229 D231:D235 D237:D238 D240:D243 D245:D250 D252:D257 D259:D263 D265:D268 D270:D272 D274 D276:D289 D291:D306 D308:D310 D312:D314 D316:D317 D319:D320 D322:D323 D325:D330 D332:D336 D338:D360 D362 D364:D368 D370:D376 D378:D383 D385:D390 D392:D397 D399:D402 D404:D430 D432 D434 D436:D438 D440:D444 D446:D449 D451:D454 D456 D458:D460 D462 D464:D465 D467 D469:D472 D474:D478 D480:D482 D485:D498 D500:D512 D514:D520 D522:D561 D563:D578 D580:D586 D588:D597 D599:D622"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,6 +611,9 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
@@ -622,6 +626,9 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
@@ -634,6 +641,9 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
@@ -646,6 +656,9 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
@@ -658,6 +671,9 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
@@ -685,6 +701,9 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
@@ -697,6 +716,9 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
@@ -709,6 +731,9 @@
       <c r="C10" t="s">
         <v>11</v>
       </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
@@ -721,6 +746,9 @@
       <c r="C11" t="s">
         <v>12</v>
       </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
@@ -733,6 +761,9 @@
       <c r="C12" t="s">
         <v>13</v>
       </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
@@ -745,6 +776,9 @@
       <c r="C13" t="s">
         <v>14</v>
       </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
@@ -757,6 +791,9 @@
       <c r="C14" t="s">
         <v>15</v>
       </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
@@ -784,6 +821,9 @@
       <c r="C16" t="s">
         <v>17</v>
       </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
@@ -796,6 +836,9 @@
       <c r="C17" t="s">
         <v>18</v>
       </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
@@ -808,6 +851,9 @@
       <c r="C18" t="s">
         <v>19</v>
       </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
@@ -820,6 +866,9 @@
       <c r="C19" t="s">
         <v>20</v>
       </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
@@ -832,6 +881,9 @@
       <c r="C20" t="s">
         <v>21</v>
       </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
@@ -859,6 +911,9 @@
       <c r="C22" t="s">
         <v>23</v>
       </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
@@ -871,6 +926,9 @@
       <c r="C23" t="s">
         <v>24</v>
       </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
@@ -883,6 +941,9 @@
       <c r="C24" t="s">
         <v>25</v>
       </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
@@ -895,6 +956,9 @@
       <c r="C25" t="s">
         <v>26</v>
       </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
@@ -907,6 +971,9 @@
       <c r="C26" t="s">
         <v>27</v>
       </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
@@ -919,6 +986,9 @@
       <c r="C27" t="s">
         <v>28</v>
       </c>
+      <c r="D27" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
@@ -946,6 +1016,9 @@
       <c r="C29" t="s">
         <v>30</v>
       </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
@@ -958,6 +1031,9 @@
       <c r="C30" t="s">
         <v>31</v>
       </c>
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
@@ -970,6 +1046,9 @@
       <c r="C31" t="s">
         <v>32</v>
       </c>
+      <c r="D31" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
@@ -982,6 +1061,9 @@
       <c r="C32" t="s">
         <v>33</v>
       </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
@@ -994,6 +1076,9 @@
       <c r="C33" t="s">
         <v>34</v>
       </c>
+      <c r="D33" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
@@ -1006,6 +1091,9 @@
       <c r="C34" t="s">
         <v>35</v>
       </c>
+      <c r="D34" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
@@ -1018,6 +1106,9 @@
       <c r="C35" t="s">
         <v>36</v>
       </c>
+      <c r="D35" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
@@ -1045,6 +1136,9 @@
       <c r="C37" t="s">
         <v>38</v>
       </c>
+      <c r="D37" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
@@ -1057,6 +1151,9 @@
       <c r="C38" t="s">
         <v>39</v>
       </c>
+      <c r="D38" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
@@ -1069,6 +1166,9 @@
       <c r="C39" t="s">
         <v>40</v>
       </c>
+      <c r="D39" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
@@ -1081,6 +1181,9 @@
       <c r="C40" t="s">
         <v>41</v>
       </c>
+      <c r="D40" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
@@ -1093,6 +1196,9 @@
       <c r="C41" t="s">
         <v>42</v>
       </c>
+      <c r="D41" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
@@ -1105,6 +1211,9 @@
       <c r="C42" t="s">
         <v>43</v>
       </c>
+      <c r="D42" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
@@ -1132,6 +1241,9 @@
       <c r="C44" t="s">
         <v>45</v>
       </c>
+      <c r="D44" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
@@ -1144,6 +1256,9 @@
       <c r="C45" t="s">
         <v>46</v>
       </c>
+      <c r="D45" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
@@ -1156,6 +1271,9 @@
       <c r="C46" t="s">
         <v>47</v>
       </c>
+      <c r="D46" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
@@ -1168,6 +1286,9 @@
       <c r="C47" t="s">
         <v>48</v>
       </c>
+      <c r="D47" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
@@ -1180,6 +1301,9 @@
       <c r="C48" t="s">
         <v>49</v>
       </c>
+      <c r="D48" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
@@ -1192,6 +1316,9 @@
       <c r="C49" t="s">
         <v>50</v>
       </c>
+      <c r="D49" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
@@ -1219,6 +1346,9 @@
       <c r="C51" t="s">
         <v>52</v>
       </c>
+      <c r="D51" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
@@ -1231,6 +1361,9 @@
       <c r="C52" t="s">
         <v>53</v>
       </c>
+      <c r="D52" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
@@ -1243,6 +1376,9 @@
       <c r="C53" t="s">
         <v>54</v>
       </c>
+      <c r="D53" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
@@ -1255,6 +1391,9 @@
       <c r="C54" t="s">
         <v>55</v>
       </c>
+      <c r="D54" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
@@ -1267,6 +1406,9 @@
       <c r="C55" t="s">
         <v>56</v>
       </c>
+      <c r="D55" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
@@ -1279,6 +1421,9 @@
       <c r="C56" t="s">
         <v>57</v>
       </c>
+      <c r="D56" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
@@ -1291,6 +1436,9 @@
       <c r="C57" t="s">
         <v>58</v>
       </c>
+      <c r="D57" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
@@ -1303,6 +1451,9 @@
       <c r="C58" t="s">
         <v>59</v>
       </c>
+      <c r="D58" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
@@ -1315,6 +1466,9 @@
       <c r="C59" t="s">
         <v>60</v>
       </c>
+      <c r="D59" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
@@ -1327,6 +1481,9 @@
       <c r="C60" t="s">
         <v>61</v>
       </c>
+      <c r="D60" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
@@ -1339,6 +1496,9 @@
       <c r="C61" t="s">
         <v>62</v>
       </c>
+      <c r="D61" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
@@ -1351,6 +1511,9 @@
       <c r="C62" t="s">
         <v>63</v>
       </c>
+      <c r="D62" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
@@ -1378,6 +1541,9 @@
       <c r="C64" t="s">
         <v>65</v>
       </c>
+      <c r="D64" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
@@ -1390,6 +1556,9 @@
       <c r="C65" t="s">
         <v>66</v>
       </c>
+      <c r="D65" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
@@ -1402,6 +1571,9 @@
       <c r="C66" t="s">
         <v>67</v>
       </c>
+      <c r="D66" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
@@ -1414,6 +1586,9 @@
       <c r="C67" t="s">
         <v>68</v>
       </c>
+      <c r="D67" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
@@ -1426,6 +1601,9 @@
       <c r="C68" t="s">
         <v>69</v>
       </c>
+      <c r="D68" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
@@ -1438,6 +1616,9 @@
       <c r="C69" t="s">
         <v>70</v>
       </c>
+      <c r="D69" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
@@ -1450,6 +1631,9 @@
       <c r="C70" t="s">
         <v>71</v>
       </c>
+      <c r="D70" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
@@ -1462,6 +1646,9 @@
       <c r="C71" t="s">
         <v>3</v>
       </c>
+      <c r="D71" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
@@ -1474,6 +1661,9 @@
       <c r="C72" t="s">
         <v>4</v>
       </c>
+      <c r="D72" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
@@ -1501,6 +1691,9 @@
       <c r="C74" t="s">
         <v>6</v>
       </c>
+      <c r="D74" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
@@ -1528,6 +1721,9 @@
       <c r="C76" t="s">
         <v>8</v>
       </c>
+      <c r="D76" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
@@ -1540,6 +1736,9 @@
       <c r="C77" t="s">
         <v>9</v>
       </c>
+      <c r="D77" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
@@ -1552,6 +1751,9 @@
       <c r="C78" t="s">
         <v>10</v>
       </c>
+      <c r="D78" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
@@ -1564,6 +1766,9 @@
       <c r="C79" t="s">
         <v>11</v>
       </c>
+      <c r="D79" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
@@ -1591,6 +1796,9 @@
       <c r="C81" t="s">
         <v>13</v>
       </c>
+      <c r="D81" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
@@ -1603,6 +1811,9 @@
       <c r="C82" t="s">
         <v>14</v>
       </c>
+      <c r="D82" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
@@ -1615,6 +1826,9 @@
       <c r="C83" t="s">
         <v>15</v>
       </c>
+      <c r="D83" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
@@ -1627,6 +1841,9 @@
       <c r="C84" t="s">
         <v>16</v>
       </c>
+      <c r="D84" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
@@ -1639,6 +1856,9 @@
       <c r="C85" t="s">
         <v>17</v>
       </c>
+      <c r="D85" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
@@ -1651,6 +1871,9 @@
       <c r="C86" t="s">
         <v>18</v>
       </c>
+      <c r="D86" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
@@ -1678,6 +1901,9 @@
       <c r="C88" t="s">
         <v>20</v>
       </c>
+      <c r="D88" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
@@ -1690,6 +1916,9 @@
       <c r="C89" t="s">
         <v>21</v>
       </c>
+      <c r="D89" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
@@ -1717,6 +1946,9 @@
       <c r="C91" t="s">
         <v>23</v>
       </c>
+      <c r="D91" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
@@ -1729,6 +1961,9 @@
       <c r="C92" t="s">
         <v>24</v>
       </c>
+      <c r="D92" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
@@ -1741,6 +1976,9 @@
       <c r="C93" t="s">
         <v>25</v>
       </c>
+      <c r="D93" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
@@ -1753,6 +1991,9 @@
       <c r="C94" t="s">
         <v>26</v>
       </c>
+      <c r="D94" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
@@ -1780,6 +2021,9 @@
       <c r="C96" t="s">
         <v>28</v>
       </c>
+      <c r="D96" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
@@ -1807,6 +2051,9 @@
       <c r="C98" t="s">
         <v>30</v>
       </c>
+      <c r="D98" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
@@ -1819,6 +2066,9 @@
       <c r="C99" t="s">
         <v>31</v>
       </c>
+      <c r="D99" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
@@ -1846,6 +2096,9 @@
       <c r="C101" t="s">
         <v>33</v>
       </c>
+      <c r="D101" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
@@ -1888,6 +2141,9 @@
       <c r="C104" t="s">
         <v>36</v>
       </c>
+      <c r="D104" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
@@ -1900,6 +2156,9 @@
       <c r="C105" t="s">
         <v>37</v>
       </c>
+      <c r="D105" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
@@ -1912,6 +2171,9 @@
       <c r="C106" t="s">
         <v>38</v>
       </c>
+      <c r="D106" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
@@ -1924,6 +2186,9 @@
       <c r="C107" t="s">
         <v>39</v>
       </c>
+      <c r="D107" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
@@ -1936,6 +2201,9 @@
       <c r="C108" t="s">
         <v>40</v>
       </c>
+      <c r="D108" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
@@ -1963,6 +2231,9 @@
       <c r="C110" t="s">
         <v>42</v>
       </c>
+      <c r="D110" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
@@ -1975,6 +2246,9 @@
       <c r="C111" t="s">
         <v>43</v>
       </c>
+      <c r="D111" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
@@ -1987,6 +2261,9 @@
       <c r="C112" t="s">
         <v>44</v>
       </c>
+      <c r="D112" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
@@ -1999,6 +2276,9 @@
       <c r="C113" t="s">
         <v>45</v>
       </c>
+      <c r="D113" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
@@ -2011,6 +2291,9 @@
       <c r="C114" t="s">
         <v>46</v>
       </c>
+      <c r="D114" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
@@ -2023,6 +2306,9 @@
       <c r="C115" t="s">
         <v>47</v>
       </c>
+      <c r="D115" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
@@ -2050,6 +2336,9 @@
       <c r="C117" t="s">
         <v>49</v>
       </c>
+      <c r="D117" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
@@ -2062,6 +2351,9 @@
       <c r="C118" t="s">
         <v>50</v>
       </c>
+      <c r="D118" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
@@ -2074,6 +2366,9 @@
       <c r="C119" t="s">
         <v>51</v>
       </c>
+      <c r="D119" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
@@ -2086,6 +2381,9 @@
       <c r="C120" t="s">
         <v>52</v>
       </c>
+      <c r="D120" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
@@ -2098,6 +2396,9 @@
       <c r="C121" t="s">
         <v>53</v>
       </c>
+      <c r="D121" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
@@ -2110,6 +2411,9 @@
       <c r="C122" t="s">
         <v>54</v>
       </c>
+      <c r="D122" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
@@ -2122,6 +2426,9 @@
       <c r="C123" t="s">
         <v>55</v>
       </c>
+      <c r="D123" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
@@ -2134,6 +2441,9 @@
       <c r="C124" t="s">
         <v>56</v>
       </c>
+      <c r="D124" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
@@ -2161,6 +2471,9 @@
       <c r="C126" t="s">
         <v>58</v>
       </c>
+      <c r="D126" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
@@ -2173,6 +2486,9 @@
       <c r="C127" t="s">
         <v>59</v>
       </c>
+      <c r="D127" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
@@ -2185,6 +2501,9 @@
       <c r="C128" t="s">
         <v>60</v>
       </c>
+      <c r="D128" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
@@ -2197,6 +2516,9 @@
       <c r="C129" t="s">
         <v>61</v>
       </c>
+      <c r="D129" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
@@ -2209,6 +2531,9 @@
       <c r="C130" t="s">
         <v>62</v>
       </c>
+      <c r="D130" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
@@ -2221,6 +2546,9 @@
       <c r="C131" t="s">
         <v>63</v>
       </c>
+      <c r="D131" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
@@ -2233,6 +2561,9 @@
       <c r="C132" t="s">
         <v>64</v>
       </c>
+      <c r="D132" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
@@ -2245,6 +2576,9 @@
       <c r="C133" t="s">
         <v>65</v>
       </c>
+      <c r="D133" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
@@ -2257,6 +2591,9 @@
       <c r="C134" t="s">
         <v>66</v>
       </c>
+      <c r="D134" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
@@ -2269,6 +2606,9 @@
       <c r="C135" t="s">
         <v>67</v>
       </c>
+      <c r="D135" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
@@ -2296,6 +2636,9 @@
       <c r="C137" t="s">
         <v>69</v>
       </c>
+      <c r="D137" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
@@ -2308,6 +2651,9 @@
       <c r="C138" t="s">
         <v>70</v>
       </c>
+      <c r="D138" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
@@ -2320,6 +2666,9 @@
       <c r="C139" t="s">
         <v>71</v>
       </c>
+      <c r="D139" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
@@ -2332,6 +2681,9 @@
       <c r="C140" t="s">
         <v>3</v>
       </c>
+      <c r="D140" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
@@ -2344,6 +2696,9 @@
       <c r="C141" t="s">
         <v>4</v>
       </c>
+      <c r="D141" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
@@ -2356,6 +2711,9 @@
       <c r="C142" t="s">
         <v>5</v>
       </c>
+      <c r="D142" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
@@ -2368,6 +2726,9 @@
       <c r="C143" t="s">
         <v>6</v>
       </c>
+      <c r="D143" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
@@ -2380,6 +2741,9 @@
       <c r="C144" t="s">
         <v>7</v>
       </c>
+      <c r="D144" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
@@ -2392,6 +2756,9 @@
       <c r="C145" t="s">
         <v>8</v>
       </c>
+      <c r="D145" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
@@ -2419,6 +2786,9 @@
       <c r="C147" t="s">
         <v>10</v>
       </c>
+      <c r="D147" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
@@ -2431,6 +2801,9 @@
       <c r="C148" t="s">
         <v>11</v>
       </c>
+      <c r="D148" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
@@ -2443,6 +2816,9 @@
       <c r="C149" t="s">
         <v>12</v>
       </c>
+      <c r="D149" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
@@ -2470,6 +2846,9 @@
       <c r="C151" t="s">
         <v>14</v>
       </c>
+      <c r="D151" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
@@ -2482,6 +2861,9 @@
       <c r="C152" t="s">
         <v>15</v>
       </c>
+      <c r="D152" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
@@ -2494,6 +2876,9 @@
       <c r="C153" t="s">
         <v>16</v>
       </c>
+      <c r="D153" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
@@ -2506,6 +2891,9 @@
       <c r="C154" t="s">
         <v>17</v>
       </c>
+      <c r="D154" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
@@ -2518,6 +2906,9 @@
       <c r="C155" t="s">
         <v>18</v>
       </c>
+      <c r="D155" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
@@ -2530,6 +2921,9 @@
       <c r="C156" t="s">
         <v>19</v>
       </c>
+      <c r="D156" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
@@ -2557,6 +2951,9 @@
       <c r="C158" t="s">
         <v>21</v>
       </c>
+      <c r="D158" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
@@ -2569,6 +2966,9 @@
       <c r="C159" t="s">
         <v>22</v>
       </c>
+      <c r="D159" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
@@ -2596,6 +2996,9 @@
       <c r="C161" t="s">
         <v>24</v>
       </c>
+      <c r="D161" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
@@ -2608,6 +3011,9 @@
       <c r="C162" t="s">
         <v>25</v>
       </c>
+      <c r="D162" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
@@ -2620,6 +3026,9 @@
       <c r="C163" t="s">
         <v>26</v>
       </c>
+      <c r="D163" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
@@ -2632,6 +3041,9 @@
       <c r="C164" t="s">
         <v>27</v>
       </c>
+      <c r="D164" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
@@ -2644,6 +3056,9 @@
       <c r="C165" t="s">
         <v>28</v>
       </c>
+      <c r="D165" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
@@ -2656,6 +3071,9 @@
       <c r="C166" t="s">
         <v>29</v>
       </c>
+      <c r="D166" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
@@ -2683,6 +3101,9 @@
       <c r="C168" t="s">
         <v>31</v>
       </c>
+      <c r="D168" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
@@ -2695,6 +3116,9 @@
       <c r="C169" t="s">
         <v>32</v>
       </c>
+      <c r="D169" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
@@ -2707,6 +3131,9 @@
       <c r="C170" t="s">
         <v>33</v>
       </c>
+      <c r="D170" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
@@ -2719,6 +3146,9 @@
       <c r="C171" t="s">
         <v>34</v>
       </c>
+      <c r="D171" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
@@ -2731,6 +3161,9 @@
       <c r="C172" t="s">
         <v>35</v>
       </c>
+      <c r="D172" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
@@ -2758,6 +3191,9 @@
       <c r="C174" t="s">
         <v>37</v>
       </c>
+      <c r="D174" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
@@ -2770,6 +3206,9 @@
       <c r="C175" t="s">
         <v>38</v>
       </c>
+      <c r="D175" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
@@ -2782,6 +3221,9 @@
       <c r="C176" t="s">
         <v>39</v>
       </c>
+      <c r="D176" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
@@ -2794,6 +3236,9 @@
       <c r="C177" t="s">
         <v>40</v>
       </c>
+      <c r="D177" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
@@ -2806,6 +3251,9 @@
       <c r="C178" t="s">
         <v>41</v>
       </c>
+      <c r="D178" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
@@ -2833,6 +3281,9 @@
       <c r="C180" t="s">
         <v>43</v>
       </c>
+      <c r="D180" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
@@ -2845,6 +3296,9 @@
       <c r="C181" t="s">
         <v>44</v>
       </c>
+      <c r="D181" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
@@ -2857,6 +3311,9 @@
       <c r="C182" t="s">
         <v>45</v>
       </c>
+      <c r="D182" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
@@ -2869,6 +3326,9 @@
       <c r="C183" t="s">
         <v>46</v>
       </c>
+      <c r="D183" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
@@ -2881,6 +3341,9 @@
       <c r="C184" t="s">
         <v>47</v>
       </c>
+      <c r="D184" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
@@ -2893,6 +3356,9 @@
       <c r="C185" t="s">
         <v>48</v>
       </c>
+      <c r="D185" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
@@ -2905,6 +3371,9 @@
       <c r="C186" t="s">
         <v>49</v>
       </c>
+      <c r="D186" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
@@ -2917,6 +3386,9 @@
       <c r="C187" t="s">
         <v>50</v>
       </c>
+      <c r="D187" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
@@ -2929,6 +3401,9 @@
       <c r="C188" t="s">
         <v>51</v>
       </c>
+      <c r="D188" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
@@ -2941,6 +3416,9 @@
       <c r="C189" t="s">
         <v>52</v>
       </c>
+      <c r="D189" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
@@ -2953,6 +3431,9 @@
       <c r="C190" t="s">
         <v>53</v>
       </c>
+      <c r="D190" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
@@ -2965,6 +3446,9 @@
       <c r="C191" t="s">
         <v>54</v>
       </c>
+      <c r="D191" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
@@ -2977,6 +3461,9 @@
       <c r="C192" t="s">
         <v>55</v>
       </c>
+      <c r="D192" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
@@ -2989,6 +3476,9 @@
       <c r="C193" t="s">
         <v>56</v>
       </c>
+      <c r="D193" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
@@ -3001,6 +3491,9 @@
       <c r="C194" t="s">
         <v>57</v>
       </c>
+      <c r="D194" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
@@ -3013,6 +3506,9 @@
       <c r="C195" t="s">
         <v>58</v>
       </c>
+      <c r="D195" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
@@ -3025,6 +3521,9 @@
       <c r="C196" t="s">
         <v>59</v>
       </c>
+      <c r="D196" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
@@ -3037,6 +3536,9 @@
       <c r="C197" t="s">
         <v>60</v>
       </c>
+      <c r="D197" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
@@ -3064,6 +3566,9 @@
       <c r="C199" t="s">
         <v>62</v>
       </c>
+      <c r="D199" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
@@ -3076,6 +3581,9 @@
       <c r="C200" t="s">
         <v>63</v>
       </c>
+      <c r="D200" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
@@ -3088,6 +3596,9 @@
       <c r="C201" t="s">
         <v>64</v>
       </c>
+      <c r="D201" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="str">
@@ -3115,6 +3626,9 @@
       <c r="C203" t="s">
         <v>66</v>
       </c>
+      <c r="D203" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
@@ -3127,6 +3641,9 @@
       <c r="C204" t="s">
         <v>67</v>
       </c>
+      <c r="D204" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
@@ -3139,6 +3656,9 @@
       <c r="C205" t="s">
         <v>68</v>
       </c>
+      <c r="D205" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
@@ -3151,6 +3671,9 @@
       <c r="C206" t="s">
         <v>69</v>
       </c>
+      <c r="D206" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
@@ -3163,6 +3686,9 @@
       <c r="C207" t="s">
         <v>70</v>
       </c>
+      <c r="D207" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
@@ -3175,6 +3701,9 @@
       <c r="C208" t="s">
         <v>71</v>
       </c>
+      <c r="D208" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
@@ -3217,6 +3746,9 @@
       <c r="C211" t="s">
         <v>5</v>
       </c>
+      <c r="D211" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="str">
@@ -3244,6 +3776,9 @@
       <c r="C213" t="s">
         <v>7</v>
       </c>
+      <c r="D213" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
@@ -3256,6 +3791,9 @@
       <c r="C214" t="s">
         <v>8</v>
       </c>
+      <c r="D214" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
@@ -3268,6 +3806,9 @@
       <c r="C215" t="s">
         <v>9</v>
       </c>
+      <c r="D215" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
@@ -3295,6 +3836,9 @@
       <c r="C217" t="s">
         <v>11</v>
       </c>
+      <c r="D217" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
@@ -3307,6 +3851,9 @@
       <c r="C218" t="s">
         <v>12</v>
       </c>
+      <c r="D218" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
@@ -3319,6 +3866,9 @@
       <c r="C219" t="s">
         <v>13</v>
       </c>
+      <c r="D219" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
@@ -3346,6 +3896,9 @@
       <c r="C221" t="s">
         <v>15</v>
       </c>
+      <c r="D221" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="str">
@@ -3358,6 +3911,9 @@
       <c r="C222" t="s">
         <v>16</v>
       </c>
+      <c r="D222" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="str">
@@ -3370,6 +3926,9 @@
       <c r="C223" t="s">
         <v>17</v>
       </c>
+      <c r="D223" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
@@ -3397,6 +3956,9 @@
       <c r="C225" t="s">
         <v>19</v>
       </c>
+      <c r="D225" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="str">
@@ -3409,6 +3971,9 @@
       <c r="C226" t="s">
         <v>20</v>
       </c>
+      <c r="D226" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="str">
@@ -3436,6 +4001,9 @@
       <c r="C228" t="s">
         <v>22</v>
       </c>
+      <c r="D228" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
@@ -3448,6 +4016,9 @@
       <c r="C229" t="s">
         <v>23</v>
       </c>
+      <c r="D229" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="str">
@@ -3475,6 +4046,9 @@
       <c r="C231" t="s">
         <v>25</v>
       </c>
+      <c r="D231" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="str">
@@ -3487,6 +4061,9 @@
       <c r="C232" t="s">
         <v>26</v>
       </c>
+      <c r="D232" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="str">
@@ -3499,6 +4076,9 @@
       <c r="C233" t="s">
         <v>27</v>
       </c>
+      <c r="D233" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="str">
@@ -3511,6 +4091,9 @@
       <c r="C234" t="s">
         <v>28</v>
       </c>
+      <c r="D234" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="str">
@@ -3523,6 +4106,9 @@
       <c r="C235" t="s">
         <v>29</v>
       </c>
+      <c r="D235" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="str">
@@ -3550,6 +4136,9 @@
       <c r="C237" t="s">
         <v>31</v>
       </c>
+      <c r="D237" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
@@ -3562,6 +4151,9 @@
       <c r="C238" t="s">
         <v>32</v>
       </c>
+      <c r="D238" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
@@ -3589,6 +4181,9 @@
       <c r="C240" t="s">
         <v>34</v>
       </c>
+      <c r="D240" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="str">
@@ -3601,6 +4196,9 @@
       <c r="C241" t="s">
         <v>35</v>
       </c>
+      <c r="D241" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="str">
@@ -3613,6 +4211,9 @@
       <c r="C242" t="s">
         <v>36</v>
       </c>
+      <c r="D242" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="str">
@@ -3625,6 +4226,9 @@
       <c r="C243" t="s">
         <v>37</v>
       </c>
+      <c r="D243" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="str">
@@ -3652,6 +4256,9 @@
       <c r="C245" t="s">
         <v>39</v>
       </c>
+      <c r="D245" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="str">
@@ -3664,6 +4271,9 @@
       <c r="C246" t="s">
         <v>40</v>
       </c>
+      <c r="D246" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="str">
@@ -3676,6 +4286,9 @@
       <c r="C247" t="s">
         <v>41</v>
       </c>
+      <c r="D247" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="str">
@@ -3688,6 +4301,9 @@
       <c r="C248" t="s">
         <v>42</v>
       </c>
+      <c r="D248" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="str">
@@ -3700,6 +4316,9 @@
       <c r="C249" t="s">
         <v>43</v>
       </c>
+      <c r="D249" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="str">
@@ -3712,6 +4331,9 @@
       <c r="C250" t="s">
         <v>44</v>
       </c>
+      <c r="D250" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="str">
@@ -3739,6 +4361,9 @@
       <c r="C252" t="s">
         <v>46</v>
       </c>
+      <c r="D252" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="str">
@@ -3751,6 +4376,9 @@
       <c r="C253" t="s">
         <v>47</v>
       </c>
+      <c r="D253" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="str">
@@ -3763,6 +4391,9 @@
       <c r="C254" t="s">
         <v>48</v>
       </c>
+      <c r="D254" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="str">
@@ -3775,6 +4406,9 @@
       <c r="C255" t="s">
         <v>49</v>
       </c>
+      <c r="D255" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="str">
@@ -3787,6 +4421,9 @@
       <c r="C256" t="s">
         <v>50</v>
       </c>
+      <c r="D256" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="str">
@@ -3799,6 +4436,9 @@
       <c r="C257" t="s">
         <v>51</v>
       </c>
+      <c r="D257" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="str">
@@ -3826,6 +4466,9 @@
       <c r="C259" t="s">
         <v>53</v>
       </c>
+      <c r="D259" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="str">
@@ -3838,6 +4481,9 @@
       <c r="C260" t="s">
         <v>54</v>
       </c>
+      <c r="D260" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="str">
@@ -3850,6 +4496,9 @@
       <c r="C261" t="s">
         <v>55</v>
       </c>
+      <c r="D261" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="str">
@@ -3862,6 +4511,9 @@
       <c r="C262" t="s">
         <v>56</v>
       </c>
+      <c r="D262" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="str">
@@ -3874,6 +4526,9 @@
       <c r="C263" t="s">
         <v>57</v>
       </c>
+      <c r="D263" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="str">
@@ -3901,6 +4556,9 @@
       <c r="C265" t="s">
         <v>59</v>
       </c>
+      <c r="D265" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="str">
@@ -3913,6 +4571,9 @@
       <c r="C266" t="s">
         <v>60</v>
       </c>
+      <c r="D266" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="str">
@@ -3925,6 +4586,9 @@
       <c r="C267" t="s">
         <v>61</v>
       </c>
+      <c r="D267" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="str">
@@ -3937,6 +4601,9 @@
       <c r="C268" t="s">
         <v>62</v>
       </c>
+      <c r="D268" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="str">
@@ -3964,6 +4631,9 @@
       <c r="C270" t="s">
         <v>64</v>
       </c>
+      <c r="D270" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="str">
@@ -3976,6 +4646,9 @@
       <c r="C271" t="s">
         <v>65</v>
       </c>
+      <c r="D271" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="str">
@@ -3988,6 +4661,9 @@
       <c r="C272" t="s">
         <v>66</v>
       </c>
+      <c r="D272" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="str">
@@ -4015,6 +4691,9 @@
       <c r="C274" t="s">
         <v>68</v>
       </c>
+      <c r="D274" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="str">
@@ -4042,6 +4721,9 @@
       <c r="C276" t="s">
         <v>70</v>
       </c>
+      <c r="D276" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="str">
@@ -4054,6 +4736,9 @@
       <c r="C277" t="s">
         <v>71</v>
       </c>
+      <c r="D277" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="str">
@@ -4066,6 +4751,9 @@
       <c r="C278" t="s">
         <v>3</v>
       </c>
+      <c r="D278" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="str">
@@ -4078,6 +4766,9 @@
       <c r="C279" t="s">
         <v>4</v>
       </c>
+      <c r="D279" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="str">
@@ -4090,6 +4781,9 @@
       <c r="C280" t="s">
         <v>5</v>
       </c>
+      <c r="D280" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="str">
@@ -4102,6 +4796,9 @@
       <c r="C281" t="s">
         <v>6</v>
       </c>
+      <c r="D281" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="str">
@@ -4114,6 +4811,9 @@
       <c r="C282" t="s">
         <v>7</v>
       </c>
+      <c r="D282" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="str">
@@ -4126,6 +4826,9 @@
       <c r="C283" t="s">
         <v>8</v>
       </c>
+      <c r="D283" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="str">
@@ -4138,6 +4841,9 @@
       <c r="C284" t="s">
         <v>9</v>
       </c>
+      <c r="D284" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="str">
@@ -4150,6 +4856,9 @@
       <c r="C285" t="s">
         <v>10</v>
       </c>
+      <c r="D285" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="str">
@@ -4162,6 +4871,9 @@
       <c r="C286" t="s">
         <v>11</v>
       </c>
+      <c r="D286" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="str">
@@ -4174,6 +4886,9 @@
       <c r="C287" t="s">
         <v>12</v>
       </c>
+      <c r="D287" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="str">
@@ -4186,6 +4901,9 @@
       <c r="C288" t="s">
         <v>13</v>
       </c>
+      <c r="D288" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="str">
@@ -4198,6 +4916,9 @@
       <c r="C289" t="s">
         <v>14</v>
       </c>
+      <c r="D289" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="str">
@@ -4225,6 +4946,9 @@
       <c r="C291" t="s">
         <v>16</v>
       </c>
+      <c r="D291" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="str">
@@ -4237,6 +4961,9 @@
       <c r="C292" t="s">
         <v>17</v>
       </c>
+      <c r="D292" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="str">
@@ -4249,6 +4976,9 @@
       <c r="C293" t="s">
         <v>18</v>
       </c>
+      <c r="D293" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="str">
@@ -4261,6 +4991,9 @@
       <c r="C294" t="s">
         <v>19</v>
       </c>
+      <c r="D294" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="str">
@@ -4273,6 +5006,9 @@
       <c r="C295" t="s">
         <v>20</v>
       </c>
+      <c r="D295" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="str">
@@ -4285,6 +5021,9 @@
       <c r="C296" t="s">
         <v>21</v>
       </c>
+      <c r="D296" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="str">
@@ -4297,6 +5036,9 @@
       <c r="C297" t="s">
         <v>22</v>
       </c>
+      <c r="D297" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="str">
@@ -4309,6 +5051,9 @@
       <c r="C298" t="s">
         <v>23</v>
       </c>
+      <c r="D298" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="str">
@@ -4321,6 +5066,9 @@
       <c r="C299" t="s">
         <v>24</v>
       </c>
+      <c r="D299" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="str">
@@ -4333,6 +5081,9 @@
       <c r="C300" t="s">
         <v>25</v>
       </c>
+      <c r="D300" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="str">
@@ -4345,6 +5096,9 @@
       <c r="C301" t="s">
         <v>26</v>
       </c>
+      <c r="D301" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="str">
@@ -4357,6 +5111,9 @@
       <c r="C302" t="s">
         <v>27</v>
       </c>
+      <c r="D302" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="str">
@@ -4369,6 +5126,9 @@
       <c r="C303" t="s">
         <v>28</v>
       </c>
+      <c r="D303" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="str">
@@ -4381,6 +5141,9 @@
       <c r="C304" t="s">
         <v>29</v>
       </c>
+      <c r="D304" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="str">
@@ -4393,6 +5156,9 @@
       <c r="C305" t="s">
         <v>30</v>
       </c>
+      <c r="D305" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="str">
@@ -4405,6 +5171,9 @@
       <c r="C306" t="s">
         <v>31</v>
       </c>
+      <c r="D306" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="str">
@@ -4432,6 +5201,9 @@
       <c r="C308" t="s">
         <v>33</v>
       </c>
+      <c r="D308" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="str">
@@ -4444,6 +5216,9 @@
       <c r="C309" t="s">
         <v>34</v>
       </c>
+      <c r="D309" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="str">
@@ -4456,6 +5231,9 @@
       <c r="C310" t="s">
         <v>35</v>
       </c>
+      <c r="D310" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="str">
@@ -4483,6 +5261,9 @@
       <c r="C312" t="s">
         <v>37</v>
       </c>
+      <c r="D312" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="str">
@@ -4495,6 +5276,9 @@
       <c r="C313" t="s">
         <v>38</v>
       </c>
+      <c r="D313" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="str">
@@ -4507,6 +5291,9 @@
       <c r="C314" t="s">
         <v>39</v>
       </c>
+      <c r="D314" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="str">
@@ -4534,6 +5321,9 @@
       <c r="C316" t="s">
         <v>41</v>
       </c>
+      <c r="D316" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="str">
@@ -4546,6 +5336,9 @@
       <c r="C317" t="s">
         <v>42</v>
       </c>
+      <c r="D317" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="str">
@@ -4573,6 +5366,9 @@
       <c r="C319" t="s">
         <v>44</v>
       </c>
+      <c r="D319" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="str">
@@ -4585,6 +5381,9 @@
       <c r="C320" t="s">
         <v>45</v>
       </c>
+      <c r="D320" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="str">
@@ -4612,6 +5411,9 @@
       <c r="C322" t="s">
         <v>47</v>
       </c>
+      <c r="D322" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="str">
@@ -4624,6 +5426,9 @@
       <c r="C323" t="s">
         <v>48</v>
       </c>
+      <c r="D323" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="str">
@@ -4651,6 +5456,9 @@
       <c r="C325" t="s">
         <v>50</v>
       </c>
+      <c r="D325" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="str">
@@ -4663,6 +5471,9 @@
       <c r="C326" t="s">
         <v>51</v>
       </c>
+      <c r="D326" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="str">
@@ -4675,6 +5486,9 @@
       <c r="C327" t="s">
         <v>52</v>
       </c>
+      <c r="D327" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="str">
@@ -4687,6 +5501,9 @@
       <c r="C328" t="s">
         <v>53</v>
       </c>
+      <c r="D328" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="str">
@@ -4699,6 +5516,9 @@
       <c r="C329" t="s">
         <v>54</v>
       </c>
+      <c r="D329" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="str">
@@ -4711,6 +5531,9 @@
       <c r="C330" t="s">
         <v>55</v>
       </c>
+      <c r="D330" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="str">
@@ -4738,6 +5561,9 @@
       <c r="C332" t="s">
         <v>57</v>
       </c>
+      <c r="D332" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="str">
@@ -4750,6 +5576,9 @@
       <c r="C333" t="s">
         <v>58</v>
       </c>
+      <c r="D333" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="str">
@@ -4762,6 +5591,9 @@
       <c r="C334" t="s">
         <v>59</v>
       </c>
+      <c r="D334" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="str">
@@ -4774,6 +5606,9 @@
       <c r="C335" t="s">
         <v>60</v>
       </c>
+      <c r="D335" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="str">
@@ -4786,6 +5621,9 @@
       <c r="C336" t="s">
         <v>61</v>
       </c>
+      <c r="D336" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="str">
@@ -4813,6 +5651,9 @@
       <c r="C338" t="s">
         <v>63</v>
       </c>
+      <c r="D338" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="str">
@@ -4825,6 +5666,9 @@
       <c r="C339" t="s">
         <v>64</v>
       </c>
+      <c r="D339" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="str">
@@ -4837,6 +5681,9 @@
       <c r="C340" t="s">
         <v>65</v>
       </c>
+      <c r="D340" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="str">
@@ -4849,6 +5696,9 @@
       <c r="C341" t="s">
         <v>66</v>
       </c>
+      <c r="D341" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="str">
@@ -4861,6 +5711,9 @@
       <c r="C342" t="s">
         <v>67</v>
       </c>
+      <c r="D342" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="str">
@@ -4873,6 +5726,9 @@
       <c r="C343" t="s">
         <v>68</v>
       </c>
+      <c r="D343" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="str">
@@ -4885,6 +5741,9 @@
       <c r="C344" t="s">
         <v>69</v>
       </c>
+      <c r="D344" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="str">
@@ -4897,6 +5756,9 @@
       <c r="C345" t="s">
         <v>70</v>
       </c>
+      <c r="D345" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="str">
@@ -4909,6 +5771,9 @@
       <c r="C346" t="s">
         <v>71</v>
       </c>
+      <c r="D346" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="str">
@@ -4921,6 +5786,9 @@
       <c r="C347" t="s">
         <v>3</v>
       </c>
+      <c r="D347" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="str">
@@ -4933,6 +5801,9 @@
       <c r="C348" t="s">
         <v>4</v>
       </c>
+      <c r="D348" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="str">
@@ -4945,6 +5816,9 @@
       <c r="C349" t="s">
         <v>5</v>
       </c>
+      <c r="D349" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="str">
@@ -4957,6 +5831,9 @@
       <c r="C350" t="s">
         <v>6</v>
       </c>
+      <c r="D350" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="str">
@@ -4969,6 +5846,9 @@
       <c r="C351" t="s">
         <v>7</v>
       </c>
+      <c r="D351" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="str">
@@ -4981,6 +5861,9 @@
       <c r="C352" t="s">
         <v>8</v>
       </c>
+      <c r="D352" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="str">
@@ -4993,6 +5876,9 @@
       <c r="C353" t="s">
         <v>9</v>
       </c>
+      <c r="D353" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="str">
@@ -5005,6 +5891,9 @@
       <c r="C354" t="s">
         <v>10</v>
       </c>
+      <c r="D354" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="str">
@@ -5017,6 +5906,9 @@
       <c r="C355" t="s">
         <v>11</v>
       </c>
+      <c r="D355" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="str">
@@ -5029,6 +5921,9 @@
       <c r="C356" t="s">
         <v>12</v>
       </c>
+      <c r="D356" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="str">
@@ -5041,6 +5936,9 @@
       <c r="C357" t="s">
         <v>13</v>
       </c>
+      <c r="D357" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="str">
@@ -5053,6 +5951,9 @@
       <c r="C358" t="s">
         <v>14</v>
       </c>
+      <c r="D358" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="str">
@@ -5065,6 +5966,9 @@
       <c r="C359" t="s">
         <v>15</v>
       </c>
+      <c r="D359" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="str">
@@ -5077,6 +5981,9 @@
       <c r="C360" t="s">
         <v>16</v>
       </c>
+      <c r="D360" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="str">
@@ -5104,6 +6011,9 @@
       <c r="C362" t="s">
         <v>18</v>
       </c>
+      <c r="D362" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="str">
@@ -5131,6 +6041,9 @@
       <c r="C364" t="s">
         <v>20</v>
       </c>
+      <c r="D364" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="str">
@@ -5143,6 +6056,9 @@
       <c r="C365" t="s">
         <v>21</v>
       </c>
+      <c r="D365" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="str">
@@ -5155,6 +6071,9 @@
       <c r="C366" t="s">
         <v>22</v>
       </c>
+      <c r="D366" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="str">
@@ -5167,6 +6086,9 @@
       <c r="C367" t="s">
         <v>23</v>
       </c>
+      <c r="D367" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="str">
@@ -5179,6 +6101,9 @@
       <c r="C368" t="s">
         <v>24</v>
       </c>
+      <c r="D368" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="str">
@@ -5206,6 +6131,9 @@
       <c r="C370" t="s">
         <v>26</v>
       </c>
+      <c r="D370" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="str">
@@ -5218,6 +6146,9 @@
       <c r="C371" t="s">
         <v>27</v>
       </c>
+      <c r="D371" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="str">
@@ -5230,6 +6161,9 @@
       <c r="C372" t="s">
         <v>28</v>
       </c>
+      <c r="D372" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="str">
@@ -5242,6 +6176,9 @@
       <c r="C373" t="s">
         <v>29</v>
       </c>
+      <c r="D373" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="str">
@@ -5254,6 +6191,9 @@
       <c r="C374" t="s">
         <v>30</v>
       </c>
+      <c r="D374" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="str">
@@ -5266,6 +6206,9 @@
       <c r="C375" t="s">
         <v>31</v>
       </c>
+      <c r="D375" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="str">
@@ -5278,6 +6221,9 @@
       <c r="C376" t="s">
         <v>32</v>
       </c>
+      <c r="D376" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="str">
@@ -5305,6 +6251,9 @@
       <c r="C378" t="s">
         <v>34</v>
       </c>
+      <c r="D378" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="str">
@@ -5317,6 +6266,9 @@
       <c r="C379" t="s">
         <v>35</v>
       </c>
+      <c r="D379" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="str">
@@ -5329,6 +6281,9 @@
       <c r="C380" t="s">
         <v>36</v>
       </c>
+      <c r="D380" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="str">
@@ -5341,6 +6296,9 @@
       <c r="C381" t="s">
         <v>37</v>
       </c>
+      <c r="D381" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="str">
@@ -5353,6 +6311,9 @@
       <c r="C382" t="s">
         <v>38</v>
       </c>
+      <c r="D382" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="str">
@@ -5365,6 +6326,9 @@
       <c r="C383" t="s">
         <v>39</v>
       </c>
+      <c r="D383" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="str">
@@ -5392,6 +6356,9 @@
       <c r="C385" t="s">
         <v>41</v>
       </c>
+      <c r="D385" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="str">
@@ -5404,6 +6371,9 @@
       <c r="C386" t="s">
         <v>42</v>
       </c>
+      <c r="D386" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="str">
@@ -5416,6 +6386,9 @@
       <c r="C387" t="s">
         <v>43</v>
       </c>
+      <c r="D387" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="str">
@@ -5428,6 +6401,9 @@
       <c r="C388" t="s">
         <v>44</v>
       </c>
+      <c r="D388" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="str">
@@ -5440,6 +6416,9 @@
       <c r="C389" t="s">
         <v>45</v>
       </c>
+      <c r="D389" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="str">
@@ -5452,6 +6431,9 @@
       <c r="C390" t="s">
         <v>46</v>
       </c>
+      <c r="D390" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="str">
@@ -5479,6 +6461,9 @@
       <c r="C392" t="s">
         <v>48</v>
       </c>
+      <c r="D392" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="str">
@@ -5491,6 +6476,9 @@
       <c r="C393" t="s">
         <v>49</v>
       </c>
+      <c r="D393" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="str">
@@ -5503,6 +6491,9 @@
       <c r="C394" t="s">
         <v>50</v>
       </c>
+      <c r="D394" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="str">
@@ -5515,6 +6506,9 @@
       <c r="C395" t="s">
         <v>51</v>
       </c>
+      <c r="D395" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="str">
@@ -5527,6 +6521,9 @@
       <c r="C396" t="s">
         <v>52</v>
       </c>
+      <c r="D396" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="str">
@@ -5539,6 +6536,9 @@
       <c r="C397" t="s">
         <v>53</v>
       </c>
+      <c r="D397" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="str">
@@ -5566,6 +6566,9 @@
       <c r="C399" t="s">
         <v>55</v>
       </c>
+      <c r="D399" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="str">
@@ -5578,6 +6581,9 @@
       <c r="C400" t="s">
         <v>56</v>
       </c>
+      <c r="D400" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="str">
@@ -5590,6 +6596,9 @@
       <c r="C401" t="s">
         <v>57</v>
       </c>
+      <c r="D401" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="str">
@@ -5602,6 +6611,9 @@
       <c r="C402" t="s">
         <v>58</v>
       </c>
+      <c r="D402" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="str">
@@ -5629,6 +6641,9 @@
       <c r="C404" t="s">
         <v>60</v>
       </c>
+      <c r="D404" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="str">
@@ -5641,6 +6656,9 @@
       <c r="C405" t="s">
         <v>61</v>
       </c>
+      <c r="D405" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="str">
@@ -5653,6 +6671,9 @@
       <c r="C406" t="s">
         <v>62</v>
       </c>
+      <c r="D406" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="str">
@@ -5665,6 +6686,9 @@
       <c r="C407" t="s">
         <v>63</v>
       </c>
+      <c r="D407" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="str">
@@ -5677,6 +6701,9 @@
       <c r="C408" t="s">
         <v>64</v>
       </c>
+      <c r="D408" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="str">
@@ -5689,6 +6716,9 @@
       <c r="C409" t="s">
         <v>65</v>
       </c>
+      <c r="D409" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="str">
@@ -5701,6 +6731,9 @@
       <c r="C410" t="s">
         <v>66</v>
       </c>
+      <c r="D410" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="str">
@@ -5713,6 +6746,9 @@
       <c r="C411" t="s">
         <v>67</v>
       </c>
+      <c r="D411" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="str">
@@ -5725,6 +6761,9 @@
       <c r="C412" t="s">
         <v>68</v>
       </c>
+      <c r="D412" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="str">
@@ -5737,6 +6776,9 @@
       <c r="C413" t="s">
         <v>69</v>
       </c>
+      <c r="D413" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="str">
@@ -5749,6 +6791,9 @@
       <c r="C414" t="s">
         <v>70</v>
       </c>
+      <c r="D414" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="str">
@@ -5761,6 +6806,9 @@
       <c r="C415" t="s">
         <v>71</v>
       </c>
+      <c r="D415" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="str">
@@ -5773,6 +6821,9 @@
       <c r="C416" t="s">
         <v>3</v>
       </c>
+      <c r="D416" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="str">
@@ -5785,6 +6836,9 @@
       <c r="C417" t="s">
         <v>4</v>
       </c>
+      <c r="D417" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="str">
@@ -5797,6 +6851,9 @@
       <c r="C418" t="s">
         <v>5</v>
       </c>
+      <c r="D418" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="str">
@@ -5809,6 +6866,9 @@
       <c r="C419" t="s">
         <v>6</v>
       </c>
+      <c r="D419" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="str">
@@ -5821,6 +6881,9 @@
       <c r="C420" t="s">
         <v>7</v>
       </c>
+      <c r="D420" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="str">
@@ -5833,6 +6896,9 @@
       <c r="C421" t="s">
         <v>8</v>
       </c>
+      <c r="D421" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="str">
@@ -5845,6 +6911,9 @@
       <c r="C422" t="s">
         <v>9</v>
       </c>
+      <c r="D422" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="str">
@@ -5857,6 +6926,9 @@
       <c r="C423" t="s">
         <v>10</v>
       </c>
+      <c r="D423" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="str">
@@ -5869,6 +6941,9 @@
       <c r="C424" t="s">
         <v>11</v>
       </c>
+      <c r="D424" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="str">
@@ -5881,6 +6956,9 @@
       <c r="C425" t="s">
         <v>12</v>
       </c>
+      <c r="D425" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="str">
@@ -5893,6 +6971,9 @@
       <c r="C426" t="s">
         <v>13</v>
       </c>
+      <c r="D426" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="str">
@@ -5905,6 +6986,9 @@
       <c r="C427" t="s">
         <v>14</v>
       </c>
+      <c r="D427" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="str">
@@ -5917,6 +7001,9 @@
       <c r="C428" t="s">
         <v>15</v>
       </c>
+      <c r="D428" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="str">
@@ -5929,6 +7016,9 @@
       <c r="C429" t="s">
         <v>16</v>
       </c>
+      <c r="D429" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="str">
@@ -5941,6 +7031,9 @@
       <c r="C430" t="s">
         <v>17</v>
       </c>
+      <c r="D430" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="str">
@@ -5968,6 +7061,9 @@
       <c r="C432" t="s">
         <v>19</v>
       </c>
+      <c r="D432" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="str">
@@ -5995,6 +7091,9 @@
       <c r="C434" t="s">
         <v>21</v>
       </c>
+      <c r="D434" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="str">
@@ -6022,6 +7121,9 @@
       <c r="C436" t="s">
         <v>23</v>
       </c>
+      <c r="D436" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="str">
@@ -6034,6 +7136,9 @@
       <c r="C437" t="s">
         <v>24</v>
       </c>
+      <c r="D437" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="str">
@@ -6046,6 +7151,9 @@
       <c r="C438" t="s">
         <v>25</v>
       </c>
+      <c r="D438" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="str">
@@ -6073,6 +7181,9 @@
       <c r="C440" t="s">
         <v>27</v>
       </c>
+      <c r="D440" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="str">
@@ -6085,6 +7196,9 @@
       <c r="C441" t="s">
         <v>28</v>
       </c>
+      <c r="D441" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="str">
@@ -6097,6 +7211,9 @@
       <c r="C442" t="s">
         <v>29</v>
       </c>
+      <c r="D442" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="str">
@@ -6109,6 +7226,9 @@
       <c r="C443" t="s">
         <v>30</v>
       </c>
+      <c r="D443" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="str">
@@ -6121,6 +7241,9 @@
       <c r="C444" t="s">
         <v>31</v>
       </c>
+      <c r="D444" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="str">
@@ -6148,6 +7271,9 @@
       <c r="C446" t="s">
         <v>33</v>
       </c>
+      <c r="D446" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="str">
@@ -6160,6 +7286,9 @@
       <c r="C447" t="s">
         <v>34</v>
       </c>
+      <c r="D447" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="str">
@@ -6172,6 +7301,9 @@
       <c r="C448" t="s">
         <v>35</v>
       </c>
+      <c r="D448" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="str">
@@ -6184,6 +7316,9 @@
       <c r="C449" t="s">
         <v>36</v>
       </c>
+      <c r="D449" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="str">
@@ -6211,6 +7346,9 @@
       <c r="C451" t="s">
         <v>38</v>
       </c>
+      <c r="D451" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="str">
@@ -6223,6 +7361,9 @@
       <c r="C452" t="s">
         <v>39</v>
       </c>
+      <c r="D452" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="str">
@@ -6235,6 +7376,9 @@
       <c r="C453" t="s">
         <v>40</v>
       </c>
+      <c r="D453" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="str">
@@ -6247,6 +7391,9 @@
       <c r="C454" t="s">
         <v>41</v>
       </c>
+      <c r="D454" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="str">
@@ -6274,6 +7421,9 @@
       <c r="C456" t="s">
         <v>43</v>
       </c>
+      <c r="D456" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="str">
@@ -6301,6 +7451,9 @@
       <c r="C458" t="s">
         <v>45</v>
       </c>
+      <c r="D458" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="str">
@@ -6313,6 +7466,9 @@
       <c r="C459" t="s">
         <v>46</v>
       </c>
+      <c r="D459" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="str">
@@ -6325,6 +7481,9 @@
       <c r="C460" t="s">
         <v>47</v>
       </c>
+      <c r="D460" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="str">
@@ -6352,6 +7511,9 @@
       <c r="C462" t="s">
         <v>49</v>
       </c>
+      <c r="D462" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="str">
@@ -6379,6 +7541,9 @@
       <c r="C464" t="s">
         <v>51</v>
       </c>
+      <c r="D464" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="str">
@@ -6391,6 +7556,9 @@
       <c r="C465" t="s">
         <v>52</v>
       </c>
+      <c r="D465" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="str">
@@ -6418,6 +7586,9 @@
       <c r="C467" t="s">
         <v>54</v>
       </c>
+      <c r="D467" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="str">
@@ -6445,6 +7616,9 @@
       <c r="C469" t="s">
         <v>56</v>
       </c>
+      <c r="D469" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="str">
@@ -6457,6 +7631,9 @@
       <c r="C470" t="s">
         <v>57</v>
       </c>
+      <c r="D470" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="str">
@@ -6469,6 +7646,9 @@
       <c r="C471" t="s">
         <v>58</v>
       </c>
+      <c r="D471" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="str">
@@ -6481,6 +7661,9 @@
       <c r="C472" t="s">
         <v>59</v>
       </c>
+      <c r="D472" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="str">
@@ -6508,6 +7691,9 @@
       <c r="C474" t="s">
         <v>61</v>
       </c>
+      <c r="D474" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="str">
@@ -6520,6 +7706,9 @@
       <c r="C475" t="s">
         <v>62</v>
       </c>
+      <c r="D475" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="str">
@@ -6532,6 +7721,9 @@
       <c r="C476" t="s">
         <v>63</v>
       </c>
+      <c r="D476" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="str">
@@ -6544,6 +7736,9 @@
       <c r="C477" t="s">
         <v>64</v>
       </c>
+      <c r="D477" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="str">
@@ -6556,6 +7751,9 @@
       <c r="C478" t="s">
         <v>65</v>
       </c>
+      <c r="D478" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="str">
@@ -6583,6 +7781,9 @@
       <c r="C480" t="s">
         <v>67</v>
       </c>
+      <c r="D480" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="str">
@@ -6595,6 +7796,9 @@
       <c r="C481" t="s">
         <v>68</v>
       </c>
+      <c r="D481" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="str">
@@ -6607,6 +7811,9 @@
       <c r="C482" t="s">
         <v>69</v>
       </c>
+      <c r="D482" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="str">
@@ -6649,6 +7856,9 @@
       <c r="C485" t="s">
         <v>3</v>
       </c>
+      <c r="D485" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="str">
@@ -6661,6 +7871,9 @@
       <c r="C486" t="s">
         <v>4</v>
       </c>
+      <c r="D486" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="str">
@@ -6673,6 +7886,9 @@
       <c r="C487" t="s">
         <v>5</v>
       </c>
+      <c r="D487" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="str">
@@ -6685,6 +7901,9 @@
       <c r="C488" t="s">
         <v>6</v>
       </c>
+      <c r="D488" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="str">
@@ -6697,6 +7916,9 @@
       <c r="C489" t="s">
         <v>7</v>
       </c>
+      <c r="D489" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="str">
@@ -6709,6 +7931,9 @@
       <c r="C490" t="s">
         <v>8</v>
       </c>
+      <c r="D490" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="str">
@@ -6721,6 +7946,9 @@
       <c r="C491" t="s">
         <v>9</v>
       </c>
+      <c r="D491" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="str">
@@ -6733,6 +7961,9 @@
       <c r="C492" t="s">
         <v>10</v>
       </c>
+      <c r="D492" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="str">
@@ -6745,6 +7976,9 @@
       <c r="C493" t="s">
         <v>11</v>
       </c>
+      <c r="D493" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="str">
@@ -6757,6 +7991,9 @@
       <c r="C494" t="s">
         <v>12</v>
       </c>
+      <c r="D494" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="str">
@@ -6769,6 +8006,9 @@
       <c r="C495" t="s">
         <v>13</v>
       </c>
+      <c r="D495" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="str">
@@ -6781,6 +8021,9 @@
       <c r="C496" t="s">
         <v>14</v>
       </c>
+      <c r="D496" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" t="str">
@@ -6793,6 +8036,9 @@
       <c r="C497" t="s">
         <v>15</v>
       </c>
+      <c r="D497" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="str">
@@ -6805,6 +8051,9 @@
       <c r="C498" t="s">
         <v>16</v>
       </c>
+      <c r="D498" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="str">
@@ -6832,6 +8081,9 @@
       <c r="C500" t="s">
         <v>18</v>
       </c>
+      <c r="D500" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="str">
@@ -6844,6 +8096,9 @@
       <c r="C501" t="s">
         <v>19</v>
       </c>
+      <c r="D501" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="str">
@@ -6856,6 +8111,9 @@
       <c r="C502" t="s">
         <v>20</v>
       </c>
+      <c r="D502" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="str">
@@ -6868,6 +8126,9 @@
       <c r="C503" t="s">
         <v>21</v>
       </c>
+      <c r="D503" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="str">
@@ -6880,6 +8141,9 @@
       <c r="C504" t="s">
         <v>22</v>
       </c>
+      <c r="D504" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" t="str">
@@ -6892,6 +8156,9 @@
       <c r="C505" t="s">
         <v>23</v>
       </c>
+      <c r="D505" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" t="str">
@@ -6904,6 +8171,9 @@
       <c r="C506" t="s">
         <v>24</v>
       </c>
+      <c r="D506" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" t="str">
@@ -6916,6 +8186,9 @@
       <c r="C507" t="s">
         <v>25</v>
       </c>
+      <c r="D507" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" t="str">
@@ -6928,6 +8201,9 @@
       <c r="C508" t="s">
         <v>26</v>
       </c>
+      <c r="D508" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" t="str">
@@ -6940,6 +8216,9 @@
       <c r="C509" t="s">
         <v>27</v>
       </c>
+      <c r="D509" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" t="str">
@@ -6952,6 +8231,9 @@
       <c r="C510" t="s">
         <v>28</v>
       </c>
+      <c r="D510" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" t="str">
@@ -6964,6 +8246,9 @@
       <c r="C511" t="s">
         <v>29</v>
       </c>
+      <c r="D511" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" t="str">
@@ -6976,6 +8261,9 @@
       <c r="C512" t="s">
         <v>30</v>
       </c>
+      <c r="D512" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" t="str">
@@ -7003,6 +8291,9 @@
       <c r="C514" t="s">
         <v>32</v>
       </c>
+      <c r="D514" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" t="str">
@@ -7015,6 +8306,9 @@
       <c r="C515" t="s">
         <v>33</v>
       </c>
+      <c r="D515" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" t="str">
@@ -7027,6 +8321,9 @@
       <c r="C516" t="s">
         <v>34</v>
       </c>
+      <c r="D516" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" t="str">
@@ -7039,6 +8336,9 @@
       <c r="C517" t="s">
         <v>35</v>
       </c>
+      <c r="D517" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" t="str">
@@ -7051,6 +8351,9 @@
       <c r="C518" t="s">
         <v>36</v>
       </c>
+      <c r="D518" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" t="str">
@@ -7063,6 +8366,9 @@
       <c r="C519" t="s">
         <v>37</v>
       </c>
+      <c r="D519" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" t="str">
@@ -7075,6 +8381,9 @@
       <c r="C520" t="s">
         <v>38</v>
       </c>
+      <c r="D520" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" t="str">
@@ -7102,6 +8411,9 @@
       <c r="C522" t="s">
         <v>40</v>
       </c>
+      <c r="D522" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" t="str">
@@ -7114,6 +8426,9 @@
       <c r="C523" t="s">
         <v>41</v>
       </c>
+      <c r="D523" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" t="str">
@@ -7126,6 +8441,9 @@
       <c r="C524" t="s">
         <v>42</v>
       </c>
+      <c r="D524" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" t="str">
@@ -7138,6 +8456,9 @@
       <c r="C525" t="s">
         <v>43</v>
       </c>
+      <c r="D525" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" t="str">
@@ -7150,6 +8471,9 @@
       <c r="C526" t="s">
         <v>44</v>
       </c>
+      <c r="D526" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" t="str">
@@ -7162,6 +8486,9 @@
       <c r="C527" t="s">
         <v>45</v>
       </c>
+      <c r="D527" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" t="str">
@@ -7174,8 +8501,11 @@
       <c r="C528" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D528" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" t="str">
         <f t="shared" si="8"/>
         <v>2008-08-10 </v>
@@ -7186,8 +8516,11 @@
       <c r="C529" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D529" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" t="str">
         <f t="shared" si="8"/>
         <v>2008-08-11 </v>
@@ -7198,8 +8531,11 @@
       <c r="C530" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D530" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" t="str">
         <f t="shared" si="8"/>
         <v>2008-08-15 </v>
@@ -7210,8 +8546,11 @@
       <c r="C531" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D531" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" t="str">
         <f t="shared" si="8"/>
         <v>2008-08-18 </v>
@@ -7222,8 +8561,11 @@
       <c r="C532" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D532" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" t="str">
         <f t="shared" si="8"/>
         <v>2008-08-19 </v>
@@ -7234,8 +8576,11 @@
       <c r="C533" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D533" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" t="str">
         <f t="shared" si="8"/>
         <v>2008-08-23 </v>
@@ -7246,8 +8591,11 @@
       <c r="C534" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D534" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" t="str">
         <f t="shared" si="8"/>
         <v>2008-08-24 </v>
@@ -7258,8 +8606,11 @@
       <c r="C535" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D535" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" t="str">
         <f t="shared" si="8"/>
         <v>2008-08-25 </v>
@@ -7270,8 +8621,11 @@
       <c r="C536" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D536" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" t="str">
         <f t="shared" si="8"/>
         <v>2008-08-31 </v>
@@ -7282,8 +8636,11 @@
       <c r="C537" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D537" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" t="str">
         <f t="shared" si="8"/>
         <v>2008-09-01 </v>
@@ -7294,8 +8651,11 @@
       <c r="C538" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D538" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" t="str">
         <f t="shared" si="8"/>
         <v>2008-09-02 </v>
@@ -7306,8 +8666,11 @@
       <c r="C539" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D539" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" t="str">
         <f t="shared" si="8"/>
         <v>2008-09-04 </v>
@@ -7318,8 +8681,11 @@
       <c r="C540" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D540" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" t="str">
         <f t="shared" si="8"/>
         <v>2008-09-07 </v>
@@ -7330,8 +8696,11 @@
       <c r="C541" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D541" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" t="str">
         <f t="shared" si="8"/>
         <v>2008-09-08 </v>
@@ -7342,8 +8711,11 @@
       <c r="C542" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D542" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" t="str">
         <f t="shared" si="8"/>
         <v>2008-09-12 </v>
@@ -7354,8 +8726,11 @@
       <c r="C543" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D543" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" t="str">
         <f t="shared" si="8"/>
         <v>2008-09-13 </v>
@@ -7366,8 +8741,11 @@
       <c r="C544" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D544" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" t="str">
         <f t="shared" si="8"/>
         <v>2008-09-17 </v>
@@ -7378,8 +8756,11 @@
       <c r="C545" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D545" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" t="str">
         <f t="shared" si="8"/>
         <v>2008-09-22 </v>
@@ -7390,8 +8771,11 @@
       <c r="C546" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D546" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" t="str">
         <f t="shared" si="8"/>
         <v>2008-09-24 </v>
@@ -7402,8 +8786,11 @@
       <c r="C547" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D547" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" t="str">
         <f t="shared" si="8"/>
         <v>2008-09-29 </v>
@@ -7414,8 +8801,11 @@
       <c r="C548" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D548" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" t="str">
         <f t="shared" si="8"/>
         <v>2008-10-01 </v>
@@ -7426,8 +8816,11 @@
       <c r="C549" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D549" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" t="str">
         <f t="shared" si="8"/>
         <v>2008-10-09 </v>
@@ -7438,8 +8831,11 @@
       <c r="C550" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D550" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" t="str">
         <f t="shared" si="8"/>
         <v>2008-10-17 </v>
@@ -7450,8 +8846,11 @@
       <c r="C551" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D551" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" t="str">
         <f t="shared" si="8"/>
         <v>2008-10-22 </v>
@@ -7462,8 +8861,11 @@
       <c r="C552" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D552" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" t="str">
         <f t="shared" si="8"/>
         <v>2008-10-27 </v>
@@ -7474,8 +8876,11 @@
       <c r="C553" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D553" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" t="str">
         <f t="shared" si="8"/>
         <v>2007-04-09 </v>
@@ -7486,8 +8891,11 @@
       <c r="C554" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D554" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" t="str">
         <f t="shared" si="8"/>
         <v>2007-04-16 </v>
@@ -7498,8 +8906,11 @@
       <c r="C555" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D555" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" t="str">
         <f t="shared" si="8"/>
         <v>2007-05-06 </v>
@@ -7510,8 +8921,11 @@
       <c r="C556" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D556" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" t="str">
         <f t="shared" si="8"/>
         <v>2007-05-07 </v>
@@ -7522,8 +8936,11 @@
       <c r="C557" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D557" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" t="str">
         <f t="shared" si="8"/>
         <v>2007-05-12 </v>
@@ -7534,8 +8951,11 @@
       <c r="C558" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D558" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" t="str">
         <f t="shared" si="8"/>
         <v>2007-05-13 </v>
@@ -7546,8 +8966,11 @@
       <c r="C559" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D559" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" t="str">
         <f t="shared" si="8"/>
         <v>2007-05-16 </v>
@@ -7557,6 +8980,9 @@
       </c>
       <c r="C560" t="s">
         <v>9</v>
+      </c>
+      <c r="D560" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
@@ -7570,6 +8996,9 @@
       <c r="C561" t="s">
         <v>10</v>
       </c>
+      <c r="D561" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" t="str">
@@ -7597,6 +9026,9 @@
       <c r="C563" t="s">
         <v>12</v>
       </c>
+      <c r="D563" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" t="str">
@@ -7609,6 +9041,9 @@
       <c r="C564" t="s">
         <v>13</v>
       </c>
+      <c r="D564" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" t="str">
@@ -7621,6 +9056,9 @@
       <c r="C565" t="s">
         <v>14</v>
       </c>
+      <c r="D565" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" t="str">
@@ -7633,6 +9071,9 @@
       <c r="C566" t="s">
         <v>15</v>
       </c>
+      <c r="D566" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" t="str">
@@ -7645,6 +9086,9 @@
       <c r="C567" t="s">
         <v>16</v>
       </c>
+      <c r="D567" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" t="str">
@@ -7657,6 +9101,9 @@
       <c r="C568" t="s">
         <v>17</v>
       </c>
+      <c r="D568" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" t="str">
@@ -7669,6 +9116,9 @@
       <c r="C569" t="s">
         <v>18</v>
       </c>
+      <c r="D569" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" t="str">
@@ -7681,6 +9131,9 @@
       <c r="C570" t="s">
         <v>19</v>
       </c>
+      <c r="D570" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" t="str">
@@ -7693,6 +9146,9 @@
       <c r="C571" t="s">
         <v>20</v>
       </c>
+      <c r="D571" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" t="str">
@@ -7705,6 +9161,9 @@
       <c r="C572" t="s">
         <v>21</v>
       </c>
+      <c r="D572" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" t="str">
@@ -7717,6 +9176,9 @@
       <c r="C573" t="s">
         <v>22</v>
       </c>
+      <c r="D573" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" t="str">
@@ -7729,6 +9191,9 @@
       <c r="C574" t="s">
         <v>23</v>
       </c>
+      <c r="D574" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" t="str">
@@ -7741,6 +9206,9 @@
       <c r="C575" t="s">
         <v>24</v>
       </c>
+      <c r="D575" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" t="str">
@@ -7753,6 +9221,9 @@
       <c r="C576" t="s">
         <v>25</v>
       </c>
+      <c r="D576" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" t="str">
@@ -7765,6 +9236,9 @@
       <c r="C577" t="s">
         <v>26</v>
       </c>
+      <c r="D577" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" t="str">
@@ -7777,6 +9251,9 @@
       <c r="C578" t="s">
         <v>27</v>
       </c>
+      <c r="D578" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" t="str">
@@ -7804,6 +9281,9 @@
       <c r="C580" t="s">
         <v>29</v>
       </c>
+      <c r="D580" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" t="str">
@@ -7816,6 +9296,9 @@
       <c r="C581" t="s">
         <v>30</v>
       </c>
+      <c r="D581" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" t="str">
@@ -7828,6 +9311,9 @@
       <c r="C582" t="s">
         <v>31</v>
       </c>
+      <c r="D582" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" t="str">
@@ -7840,6 +9326,9 @@
       <c r="C583" t="s">
         <v>32</v>
       </c>
+      <c r="D583" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" t="str">
@@ -7852,6 +9341,9 @@
       <c r="C584" t="s">
         <v>33</v>
       </c>
+      <c r="D584" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" t="str">
@@ -7864,6 +9356,9 @@
       <c r="C585" t="s">
         <v>34</v>
       </c>
+      <c r="D585" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" t="str">
@@ -7876,6 +9371,9 @@
       <c r="C586" t="s">
         <v>35</v>
       </c>
+      <c r="D586" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" t="str">
@@ -7903,6 +9401,9 @@
       <c r="C588" t="s">
         <v>37</v>
       </c>
+      <c r="D588" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" t="str">
@@ -7915,6 +9416,9 @@
       <c r="C589" t="s">
         <v>38</v>
       </c>
+      <c r="D589" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" t="str">
@@ -7927,6 +9431,9 @@
       <c r="C590" t="s">
         <v>39</v>
       </c>
+      <c r="D590" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" t="str">
@@ -7939,6 +9446,9 @@
       <c r="C591" t="s">
         <v>40</v>
       </c>
+      <c r="D591" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" t="str">
@@ -7951,6 +9461,9 @@
       <c r="C592" t="s">
         <v>41</v>
       </c>
+      <c r="D592" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" t="str">
@@ -7963,6 +9476,9 @@
       <c r="C593" t="s">
         <v>42</v>
       </c>
+      <c r="D593" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" t="str">
@@ -7975,6 +9491,9 @@
       <c r="C594" t="s">
         <v>43</v>
       </c>
+      <c r="D594" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" t="str">
@@ -7987,6 +9506,9 @@
       <c r="C595" t="s">
         <v>44</v>
       </c>
+      <c r="D595" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" t="str">
@@ -7999,6 +9521,9 @@
       <c r="C596" t="s">
         <v>45</v>
       </c>
+      <c r="D596" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" t="str">
@@ -8011,6 +9536,9 @@
       <c r="C597" t="s">
         <v>46</v>
       </c>
+      <c r="D597" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" t="str">
@@ -8038,6 +9566,9 @@
       <c r="C599" t="s">
         <v>48</v>
       </c>
+      <c r="D599" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" t="str">
@@ -8050,6 +9581,9 @@
       <c r="C600" t="s">
         <v>49</v>
       </c>
+      <c r="D600" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" t="str">
@@ -8062,6 +9596,9 @@
       <c r="C601" t="s">
         <v>50</v>
       </c>
+      <c r="D601" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" t="str">
@@ -8074,6 +9611,9 @@
       <c r="C602" t="s">
         <v>51</v>
       </c>
+      <c r="D602" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" t="str">
@@ -8086,6 +9626,9 @@
       <c r="C603" t="s">
         <v>52</v>
       </c>
+      <c r="D603" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" t="str">
@@ -8098,6 +9641,9 @@
       <c r="C604" t="s">
         <v>53</v>
       </c>
+      <c r="D604" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" t="str">
@@ -8110,6 +9656,9 @@
       <c r="C605" t="s">
         <v>54</v>
       </c>
+      <c r="D605" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" t="str">
@@ -8122,6 +9671,9 @@
       <c r="C606" t="s">
         <v>55</v>
       </c>
+      <c r="D606" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" t="str">
@@ -8134,6 +9686,9 @@
       <c r="C607" t="s">
         <v>56</v>
       </c>
+      <c r="D607" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" t="str">
@@ -8146,8 +9701,11 @@
       <c r="C608" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D608" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" t="str">
         <f t="shared" si="9"/>
         <v>2007-09-04 </v>
@@ -8158,8 +9716,11 @@
       <c r="C609" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D609" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" t="str">
         <f t="shared" si="9"/>
         <v>2007-09-07 </v>
@@ -8170,8 +9731,11 @@
       <c r="C610" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D610" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" t="str">
         <f t="shared" si="9"/>
         <v>2007-09-08 </v>
@@ -8182,8 +9746,11 @@
       <c r="C611" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D611" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" t="str">
         <f t="shared" si="9"/>
         <v>2007-09-12 </v>
@@ -8194,8 +9761,11 @@
       <c r="C612" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D612" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" t="str">
         <f t="shared" si="9"/>
         <v>2007-09-13 </v>
@@ -8206,8 +9776,11 @@
       <c r="C613" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D613" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" t="str">
         <f t="shared" si="9"/>
         <v>2007-09-17 </v>
@@ -8218,8 +9791,11 @@
       <c r="C614" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D614" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" t="str">
         <f t="shared" si="9"/>
         <v>2007-09-22 </v>
@@ -8230,8 +9806,11 @@
       <c r="C615" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D615" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" t="str">
         <f t="shared" si="9"/>
         <v>2007-09-24 </v>
@@ -8242,8 +9821,11 @@
       <c r="C616" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D616" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" t="str">
         <f t="shared" si="9"/>
         <v>2007-09-29 </v>
@@ -8254,8 +9836,11 @@
       <c r="C617" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D617" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" t="str">
         <f t="shared" si="9"/>
         <v>2007-10-01 </v>
@@ -8266,8 +9851,11 @@
       <c r="C618" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D618" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" t="str">
         <f t="shared" si="9"/>
         <v>2007-10-09 </v>
@@ -8278,8 +9866,11 @@
       <c r="C619" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D619" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" t="str">
         <f t="shared" si="9"/>
         <v>2007-10-17 </v>
@@ -8290,8 +9881,11 @@
       <c r="C620" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D620" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" t="str">
         <f t="shared" si="9"/>
         <v>2007-10-22 </v>
@@ -8302,8 +9896,11 @@
       <c r="C621" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D621" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" t="str">
         <f t="shared" si="9"/>
         <v>2007-10-27 </v>
@@ -8314,32 +9911,11 @@
       <c r="C622" t="s">
         <v>71</v>
       </c>
+      <c r="D622" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>